--- a/public/samples/imports/employee_import_template.xlsx
+++ b/public/samples/imports/employee_import_template.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Employee Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,26 +16,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>personal_email</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>email</t>
+    <t>business_phone</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>national_id</t>
+  </si>
+  <si>
     <t>date_of_birth</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
+    <t>emergency_contact_name</t>
+  </si>
+  <si>
+    <t>emergency_contact_relation</t>
+  </si>
+  <si>
+    <t>emergency_contact_phone</t>
+  </si>
+  <si>
     <t>employee_id</t>
   </si>
   <si>
@@ -47,100 +69,235 @@
     <t>employee_level</t>
   </si>
   <si>
+    <t>contract_type</t>
+  </si>
+  <si>
     <t>manager_email</t>
   </si>
   <si>
     <t>company_joining_date</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>john.doe@company.com</t>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>john.smith@company.com</t>
+  </si>
+  <si>
+    <t>john.smith@gmail.com</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
-    <t>1990-05-15</t>
-  </si>
-  <si>
-    <t>123 Main St Cairo Egypt</t>
-  </si>
-  <si>
-    <t>dept 1</t>
-  </si>
-  <si>
-    <t>pos 1</t>
+    <t>married</t>
+  </si>
+  <si>
+    <t>1990-01-15</t>
+  </si>
+  <si>
+    <t>123 Main Street, City, Country</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>EMP001</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>manager@company.com</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>Sarah Johnson</t>
+  </si>
+  <si>
+    <t>sarah.johnson@company.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>1992-05-20</t>
+  </si>
+  <si>
+    <t>456 Oak Avenue, City, Country</t>
+  </si>
+  <si>
+    <t>Robert Johnson</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>EMP002</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Marketing Specialist</t>
   </si>
   <si>
     <t>junior</t>
   </si>
   <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>jane.smith@company.com</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>1985-08-22</t>
-  </si>
-  <si>
-    <t>456 Elm St Alexandria Egypt</t>
-  </si>
-  <si>
-    <t>EMP002</t>
-  </si>
-  <si>
-    <t>dept 2</t>
-  </si>
-  <si>
-    <t>pos 2</t>
-  </si>
-  <si>
-    <t>senior</t>
-  </si>
-  <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
-    <t>Ahmed Hassan</t>
-  </si>
-  <si>
-    <t>ahmed.hassan@company.com</t>
-  </si>
-  <si>
-    <t>1992-03-10</t>
-  </si>
-  <si>
-    <t>789 Oak St Giza Egypt</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
-    <t>Sara Mohamed</t>
-  </si>
-  <si>
-    <t>sara.mohamed@company.com</t>
-  </si>
-  <si>
-    <t>1988-12-05</t>
-  </si>
-  <si>
-    <t>321 Pine St Cairo Egypt</t>
-  </si>
-  <si>
-    <t>2025-01-04</t>
+    <t>fulltime</t>
+  </si>
+  <si>
+    <t>marketing.manager@company.com</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>Employee Import Template - Instructions</t>
+  </si>
+  <si>
+    <t>COLUMN HEADERS (Do NOT modify the header names in row 1)</t>
+  </si>
+  <si>
+    <t>The following columns are available for import:</t>
+  </si>
+  <si>
+    <t>REQUIRED FIELDS</t>
+  </si>
+  <si>
+    <t>• name: Full name of the employee</t>
+  </si>
+  <si>
+    <t>• email: Official work email address (must be unique)</t>
+  </si>
+  <si>
+    <t>• phone: Contact phone number with country code (e.g., +1234567890)</t>
+  </si>
+  <si>
+    <t>• gender: Must be either "male" or "female"</t>
+  </si>
+  <si>
+    <t>• marital_status: Must be either "single" or "married"</t>
+  </si>
+  <si>
+    <t>• national_id: National identification number (must be unique)</t>
+  </si>
+  <si>
+    <t>• department: Department name (must exist in the system)</t>
+  </si>
+  <si>
+    <t>• position: Job position/title (must exist in the system)</t>
+  </si>
+  <si>
+    <t>• employee_level: Must be one of: intern, junior, mid, senior, lead, manager, director</t>
+  </si>
+  <si>
+    <t>• contract_type: Must be one of: permanent, fulltime, parttime, freelance, credit_hours, internship</t>
+  </si>
+  <si>
+    <t>OPTIONAL FIELDS</t>
+  </si>
+  <si>
+    <t>• personal_email: Personal email address</t>
+  </si>
+  <si>
+    <t>• business_phone: Additional business phone number</t>
+  </si>
+  <si>
+    <t>• date_of_birth: Format: YYYY-MM-DD (e.g., 1990-01-15)</t>
+  </si>
+  <si>
+    <t>• address: Full address</t>
+  </si>
+  <si>
+    <t>• emergency_contact_name: Name of emergency contact person</t>
+  </si>
+  <si>
+    <t>• emergency_contact_relation: Relationship (e.g., Spouse, Parent, Sibling)</t>
+  </si>
+  <si>
+    <t>• emergency_contact_phone: Emergency contact phone number</t>
+  </si>
+  <si>
+    <t>• employee_id: Will be auto-generated if left empty</t>
+  </si>
+  <si>
+    <t>• manager_email: Email of the direct manager (must exist in system)</t>
+  </si>
+  <si>
+    <t>• company_joining_date: Format: YYYY-MM-DD (defaults to today if empty)</t>
+  </si>
+  <si>
+    <t>IMPORTANT NOTES</t>
+  </si>
+  <si>
+    <t>• DO NOT modify the header row (row 1) - column names must match exactly</t>
+  </si>
+  <si>
+    <t>• Make sure departments and positions exist in the system before importing</t>
+  </si>
+  <si>
+    <t>• Manager must already exist in the system</t>
+  </si>
+  <si>
+    <t>• All email addresses must be unique</t>
+  </si>
+  <si>
+    <t>• Phone numbers should include country codes</t>
+  </si>
+  <si>
+    <t>• Dates should be in YYYY-MM-DD format</t>
+  </si>
+  <si>
+    <t>• Leave optional fields empty if not available</t>
+  </si>
+  <si>
+    <t>• The system will validate all required fields during import</t>
+  </si>
+  <si>
+    <t>VALID OPTIONS</t>
+  </si>
+  <si>
+    <t>Gender: male, female</t>
+  </si>
+  <si>
+    <t>Marital Status: single, married</t>
+  </si>
+  <si>
+    <t>Employee Level: intern, junior, mid, senior, lead, manager, director</t>
+  </si>
+  <si>
+    <t>Contract Type: permanent, fulltime, parttime, freelance, credit_hours, internship</t>
+  </si>
+  <si>
+    <t>SAMPLE DATA</t>
+  </si>
+  <si>
+    <t>The template includes 2 sample rows to show the correct format.</t>
+  </si>
+  <si>
+    <t>You can delete these rows and add your own data.</t>
+  </si>
+  <si>
+    <t>Make sure to keep the header row intact.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -163,12 +320,57 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF2563eb"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFdc2626"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF059669"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFd97706"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF7c3aed"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +379,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FF3b82f6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf8fafc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,13 +398,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,204 +729,482 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L1" sqref="L1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="29.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30.564" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.852" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19.852" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="29.279" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="33.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="30.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="19.852" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="26.993" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:20">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1234567891</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1234567890123</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1234567892</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>1234567893</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="7">
+        <v>9876543210987</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1234567894</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="117.828" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>20123456789</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>20123456790</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>20123456791</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>20123456792</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/public/samples/imports/employee_import_template.xlsx
+++ b/public/samples/imports/employee_import_template.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Employee Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Employee Import Template" sheetId="1" r:id="rId4"/>
     <sheet name="Instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -24,24 +24,36 @@
     <t>email</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>national_id</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>contract_type</t>
+  </si>
+  <si>
+    <t>social_insurance_status</t>
+  </si>
+  <si>
     <t>personal_email</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>business_phone</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>national_id</t>
-  </si>
-  <si>
     <t>date_of_birth</t>
   </si>
   <si>
@@ -60,16 +72,10 @@
     <t>employee_id</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>employee_level</t>
   </si>
   <si>
-    <t>contract_type</t>
+    <t>social_insurance_number</t>
   </si>
   <si>
     <t>manager_email</t>
@@ -78,226 +84,325 @@
     <t>company_joining_date</t>
   </si>
   <si>
+    <t>Full Name (Required)</t>
+  </si>
+  <si>
+    <t>Work Email (Required)</t>
+  </si>
+  <si>
+    <t>Phone Number (Required)</t>
+  </si>
+  <si>
+    <t>Gender: male/female (Required)</t>
+  </si>
+  <si>
+    <t>Marital Status: single/married (Required)</t>
+  </si>
+  <si>
+    <t>National ID Number (Required)</t>
+  </si>
+  <si>
+    <t>Department Name (Required)</t>
+  </si>
+  <si>
+    <t>Position Title (Required)</t>
+  </si>
+  <si>
+    <t>Contract: permanent/fulltime/parttime/freelance/credit_hours/internship (Required)</t>
+  </si>
+  <si>
+    <t>Social Insurance: not_applicable/pending/done (Required)</t>
+  </si>
+  <si>
+    <t>Personal Email (Optional)</t>
+  </si>
+  <si>
+    <t>Business Phone (Optional)</t>
+  </si>
+  <si>
+    <t>Date of Birth: YYYY-MM-DD (Optional)</t>
+  </si>
+  <si>
+    <t>Address (Optional)</t>
+  </si>
+  <si>
+    <t>Emergency Contact Name (Optional)</t>
+  </si>
+  <si>
+    <t>Relationship (Optional)</t>
+  </si>
+  <si>
+    <t>Emergency Contact Phone (Optional)</t>
+  </si>
+  <si>
+    <t>Employee ID (Optional - Auto-generated)</t>
+  </si>
+  <si>
+    <t>Level: internship/entry/junior/mid/senior/lead/manager (Optional)</t>
+  </si>
+  <si>
+    <t>Social Insurance Number (Optional)</t>
+  </si>
+  <si>
+    <t>Manager Email (Optional)</t>
+  </si>
+  <si>
+    <t>Joining Date: YYYY-MM-DD (Optional)</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john.doe@company.com</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>not_applicable</t>
+  </si>
+  <si>
+    <t>john.personal@gmail.com</t>
+  </si>
+  <si>
+    <t>1990-05-15</t>
+  </si>
+  <si>
+    <t>123 Main Street, Cairo</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>ENG0001</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>SI123456789</t>
+  </si>
+  <si>
+    <t>manager@company.com</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@company.com</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Marketing Specialist</t>
+  </si>
+  <si>
+    <t>fulltime</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>jane.personal@gmail.com</t>
+  </si>
+  <si>
+    <t>1988-03-20</t>
+  </si>
+  <si>
+    <t>456 Oak Avenue, Cairo</t>
+  </si>
+  <si>
     <t>John Smith</t>
   </si>
   <si>
-    <t>john.smith@company.com</t>
-  </si>
-  <si>
-    <t>john.smith@gmail.com</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>married</t>
-  </si>
-  <si>
-    <t>1990-01-15</t>
-  </si>
-  <si>
-    <t>123 Main Street, City, Country</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>EMP001</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Software Developer</t>
+    <t>Husband</t>
+  </si>
+  <si>
+    <t>MKT0001</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>head@company.com</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>Ahmed Ali</t>
+  </si>
+  <si>
+    <t>ahmed.ali@company.com</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HR Specialist</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>ahmed.personal@gmail.com</t>
+  </si>
+  <si>
+    <t>1992-07-10</t>
+  </si>
+  <si>
+    <t>789 Pine Road, Giza</t>
+  </si>
+  <si>
+    <t>Fatma Ali</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>HR0001</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>SI987654321</t>
+  </si>
+  <si>
+    <t>hr.manager@company.com</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>Fatma Hassan</t>
+  </si>
+  <si>
+    <t>fatma.hassan@company.com</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>fatma.personal@gmail.com</t>
+  </si>
+  <si>
+    <t>1985-12-25</t>
+  </si>
+  <si>
+    <t>321 Elm Street, Alexandria</t>
+  </si>
+  <si>
+    <t>Omar Hassan</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>FIN0001</t>
   </si>
   <si>
     <t>mid</t>
   </si>
   <si>
-    <t>permanent</t>
-  </si>
-  <si>
-    <t>manager@company.com</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>Sarah Johnson</t>
-  </si>
-  <si>
-    <t>sarah.johnson@company.com</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>1992-05-20</t>
-  </si>
-  <si>
-    <t>456 Oak Avenue, City, Country</t>
-  </si>
-  <si>
-    <t>Robert Johnson</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>EMP002</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Marketing Specialist</t>
-  </si>
-  <si>
-    <t>junior</t>
-  </si>
-  <si>
-    <t>fulltime</t>
-  </si>
-  <si>
-    <t>marketing.manager@company.com</t>
-  </si>
-  <si>
-    <t>2024-02-15</t>
-  </si>
-  <si>
-    <t>Employee Import Template - Instructions</t>
-  </si>
-  <si>
-    <t>COLUMN HEADERS (Do NOT modify the header names in row 1)</t>
-  </si>
-  <si>
-    <t>The following columns are available for import:</t>
-  </si>
-  <si>
-    <t>REQUIRED FIELDS</t>
-  </si>
-  <si>
-    <t>• name: Full name of the employee</t>
-  </si>
-  <si>
-    <t>• email: Official work email address (must be unique)</t>
-  </si>
-  <si>
-    <t>• phone: Contact phone number with country code (e.g., +1234567890)</t>
-  </si>
-  <si>
-    <t>• gender: Must be either "male" or "female"</t>
-  </si>
-  <si>
-    <t>• marital_status: Must be either "single" or "married"</t>
-  </si>
-  <si>
-    <t>• national_id: National identification number (must be unique)</t>
-  </si>
-  <si>
-    <t>• department: Department name (must exist in the system)</t>
-  </si>
-  <si>
-    <t>• position: Job position/title (must exist in the system)</t>
-  </si>
-  <si>
-    <t>• employee_level: Must be one of: intern, junior, mid, senior, lead, manager, director</t>
-  </si>
-  <si>
-    <t>• contract_type: Must be one of: permanent, fulltime, parttime, freelance, credit_hours, internship</t>
-  </si>
-  <si>
-    <t>OPTIONAL FIELDS</t>
-  </si>
-  <si>
-    <t>• personal_email: Personal email address</t>
-  </si>
-  <si>
-    <t>• business_phone: Additional business phone number</t>
-  </si>
-  <si>
-    <t>• date_of_birth: Format: YYYY-MM-DD (e.g., 1990-01-15)</t>
-  </si>
-  <si>
-    <t>• address: Full address</t>
-  </si>
-  <si>
-    <t>• emergency_contact_name: Name of emergency contact person</t>
-  </si>
-  <si>
-    <t>• emergency_contact_relation: Relationship (e.g., Spouse, Parent, Sibling)</t>
-  </si>
-  <si>
-    <t>• emergency_contact_phone: Emergency contact phone number</t>
-  </si>
-  <si>
-    <t>• employee_id: Will be auto-generated if left empty</t>
-  </si>
-  <si>
-    <t>• manager_email: Email of the direct manager (must exist in system)</t>
-  </si>
-  <si>
-    <t>• company_joining_date: Format: YYYY-MM-DD (defaults to today if empty)</t>
-  </si>
-  <si>
-    <t>IMPORTANT NOTES</t>
-  </si>
-  <si>
-    <t>• DO NOT modify the header row (row 1) - column names must match exactly</t>
-  </si>
-  <si>
-    <t>• Make sure departments and positions exist in the system before importing</t>
-  </si>
-  <si>
-    <t>• Manager must already exist in the system</t>
-  </si>
-  <si>
-    <t>• All email addresses must be unique</t>
-  </si>
-  <si>
-    <t>• Phone numbers should include country codes</t>
-  </si>
-  <si>
-    <t>• Dates should be in YYYY-MM-DD format</t>
-  </si>
-  <si>
-    <t>• Leave optional fields empty if not available</t>
-  </si>
-  <si>
-    <t>• The system will validate all required fields during import</t>
-  </si>
-  <si>
-    <t>VALID OPTIONS</t>
-  </si>
-  <si>
-    <t>Gender: male, female</t>
-  </si>
-  <si>
-    <t>Marital Status: single, married</t>
-  </si>
-  <si>
-    <t>Employee Level: intern, junior, mid, senior, lead, manager, director</t>
-  </si>
-  <si>
-    <t>Contract Type: permanent, fulltime, parttime, freelance, credit_hours, internship</t>
-  </si>
-  <si>
-    <t>SAMPLE DATA</t>
-  </si>
-  <si>
-    <t>The template includes 2 sample rows to show the correct format.</t>
-  </si>
-  <si>
-    <t>You can delete these rows and add your own data.</t>
-  </si>
-  <si>
-    <t>Make sure to keep the header row intact.</t>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>Employee Import Template Instructions</t>
+  </si>
+  <si>
+    <t>IMPORTANT: This template contains all required and optional fields for importing employees.</t>
+  </si>
+  <si>
+    <t>Required Fields (Must be filled):</t>
+  </si>
+  <si>
+    <t>• name - Full name of the employee</t>
+  </si>
+  <si>
+    <t>• email - Work email address (must be unique)</t>
+  </si>
+  <si>
+    <t>• phone - Phone number with country code</t>
+  </si>
+  <si>
+    <t>• gender - Either "male" or "female"</t>
+  </si>
+  <si>
+    <t>• marital_status - Either "single" or "married"</t>
+  </si>
+  <si>
+    <t>• national_id - National ID number</t>
+  </si>
+  <si>
+    <t>• department - Department name (must exist in system)</t>
+  </si>
+  <si>
+    <t>• position - Position title (must exist in system)</t>
+  </si>
+  <si>
+    <t>• contract_type - One of: permanent, fulltime, parttime, freelance, credit_hours, internship</t>
+  </si>
+  <si>
+    <t>• social_insurance_status - One of: not_applicable, pending, done</t>
+  </si>
+  <si>
+    <t>Optional Fields:</t>
+  </si>
+  <si>
+    <t>• All other fields are optional and can be left empty</t>
+  </si>
+  <si>
+    <t>• employee_id will be auto-generated if not provided</t>
+  </si>
+  <si>
+    <t>• manager_email must be an existing employee's email</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>• Delete the description row (row 2) before importing</t>
+  </si>
+  <si>
+    <t>• You can delete sample data rows (rows 3-6) and add your own data</t>
+  </si>
+  <si>
+    <t>• Date format: YYYY-MM-DD (e.g., 2024-01-15)</t>
+  </si>
+  <si>
+    <t>• Phone numbers should include country codes (e.g., +20123456789)</t>
+  </si>
+  <si>
+    <t>• Social Insurance Number is only needed if status is "pending" or "done"</t>
   </si>
 </sst>
 </file>
@@ -305,7 +410,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -320,8 +425,17 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="16"/>
-      <color rgb="FF2563eb"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -329,44 +443,8 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFdc2626"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF059669"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFd97706"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF7c3aed"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="16"/>
+      <color rgb="FFeb4034"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -379,18 +457,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3b82f6"/>
+        <fgColor rgb="FFeb4034"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf8fafc"/>
+        <fgColor rgb="FFf3f4f6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -413,23 +491,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFcccccc"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFcccccc"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFcccccc"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFcccccc"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,218 +821,463 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:T3"/>
+      <selection activeCell="A3" sqref="A3:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30.564" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="36.42" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="29.279" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="33.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="30.421" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="35.277" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="22.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25.422" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="44.846" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="31.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="28.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="27.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="88.835" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="60.985" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="27.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39.562" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="36.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="36.991" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="37.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="42.704" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="70.554" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="37.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="38.419" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:22" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:22" customHeight="1" ht="40">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7">
-        <v>1234567890</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1234567891</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7">
-        <v>1234567890123</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="7">
-        <v>1234567892</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="N2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="7" t="s">
+      <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>1234567893</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="R2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7">
-        <v>9876543210987</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="U2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="V2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="7">
-        <v>1234567894</v>
-      </c>
-      <c r="N3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="C3" s="3">
+        <v>20123456789</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="F3" s="3">
+        <v>12345678901234</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20987654321</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>20111222333</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20123456788</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12345678901235</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="3">
+        <v>20987654322</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>20111222334</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20123456787</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12345678901236</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="3">
+        <v>20987654323</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>20111222335</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20123456786</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12345678901237</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>20111222336</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -963,248 +1300,142 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="117.828" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="80" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
+      <c r="A1" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
+      <c r="A3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
+      <c r="A6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
+      <c r="A16"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17"/>
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>65</v>
+      <c r="A18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
+      <c r="A21"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
